--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1983.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1983.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.231084756995875</v>
+        <v>0.7767695188522339</v>
       </c>
       <c r="B1">
-        <v>2.265726910368785</v>
+        <v>0.9612244963645935</v>
       </c>
       <c r="C1">
-        <v>8.510344068961315</v>
+        <v>1.356578946113586</v>
       </c>
       <c r="D1">
-        <v>2.551100323694529</v>
+        <v>3.210244655609131</v>
       </c>
       <c r="E1">
-        <v>1.151141241065955</v>
+        <v>2.884607315063477</v>
       </c>
     </row>
   </sheetData>
